--- a/web/output-cs.xlsx
+++ b/web/output-cs.xlsx
@@ -31,13 +31,16 @@
     <t>Fataliyev Fagan</t>
   </si>
   <si>
+    <t>Aliyev Abdulla</t>
+  </si>
+  <si>
     <t>Iskandarli Rajab</t>
   </si>
   <si>
     <t>Kuznetsov Pavel</t>
   </si>
   <si>
-    <t>Aliyev Abdulla</t>
+    <t>Yavarova Emiliya</t>
   </si>
   <si>
     <t>Shamsudinov Nail</t>
@@ -46,109 +49,106 @@
     <t>Hagverdiyev Elnur</t>
   </si>
   <si>
-    <t>Yavarova Emiliya</t>
+    <t>Taghizada Rahman</t>
+  </si>
+  <si>
+    <t>Rzayeva Nurana</t>
+  </si>
+  <si>
+    <t>Seyidli Mirjalal</t>
   </si>
   <si>
     <t>Guliyev Ismail</t>
   </si>
   <si>
-    <t>Rzayeva Nurana</t>
+    <t>Shakikhanli Farida</t>
+  </si>
+  <si>
+    <t>Sadigli Javid</t>
+  </si>
+  <si>
+    <t>Gulamova Narmin</t>
+  </si>
+  <si>
+    <t>Mammadov Rafi</t>
+  </si>
+  <si>
+    <t>Ismayilova Ayan</t>
+  </si>
+  <si>
+    <t>Ganizada Nazim</t>
   </si>
   <si>
     <t>Aliyev Mahammad</t>
   </si>
   <si>
-    <t>Sadigli Javid</t>
-  </si>
-  <si>
-    <t>Ganizada Nazim</t>
-  </si>
-  <si>
-    <t>Mammadov Rafi</t>
-  </si>
-  <si>
-    <t>Seyidli Mirjalal</t>
-  </si>
-  <si>
-    <t>Taghizada Rahman</t>
-  </si>
-  <si>
     <t>Babayeva Sofiya</t>
   </si>
   <si>
-    <t>Gulamova Narmin</t>
-  </si>
-  <si>
-    <t>Shakikhanli Farida</t>
-  </si>
-  <si>
-    <t>Ismayilova Ayan</t>
-  </si>
-  <si>
     <t>Nuruzada Hamza</t>
   </si>
   <si>
+    <t>Kheyirbayov Ismayil</t>
+  </si>
+  <si>
+    <t>Rustamov Rahim</t>
+  </si>
+  <si>
+    <t>Aliyev Javid</t>
+  </si>
+  <si>
+    <t>Hasanli Eldar</t>
+  </si>
+  <si>
+    <t>Abdullayeva Aysu</t>
+  </si>
+  <si>
+    <t>Zamanova Lala</t>
+  </si>
+  <si>
     <t>Aghayarli Anar</t>
   </si>
   <si>
-    <t>Aliyev Javid</t>
-  </si>
-  <si>
-    <t>Kheyirbayov Ismayil</t>
-  </si>
-  <si>
-    <t>Hasanli Eldar</t>
+    <t>Mammadov Omar</t>
+  </si>
+  <si>
+    <t>Bakirov Zakir</t>
   </si>
   <si>
     <t>Maharramli Javid</t>
   </si>
   <si>
-    <t>Bakirov Zakir</t>
-  </si>
-  <si>
-    <t>Abdullayeva Aysu</t>
-  </si>
-  <si>
-    <t>Rustamov Rahim</t>
-  </si>
-  <si>
-    <t>Mammadov Omar</t>
-  </si>
-  <si>
-    <t>Zamanova Lala</t>
+    <t>Abdullayeva Narmin</t>
+  </si>
+  <si>
+    <t>Agharahimov Aghasalim</t>
   </si>
   <si>
     <t>Imanov Tamerlan</t>
   </si>
   <si>
-    <t>Agharahimov Aghasalim</t>
-  </si>
-  <si>
-    <t>Abdullayeva Narmin</t>
+    <t>Zahidli Ulkar</t>
   </si>
   <si>
     <t>Shafizada Suleyman</t>
   </si>
   <si>
-    <t>Zahidli Ulkar</t>
+    <t>Bayramova Jamila</t>
   </si>
   <si>
     <t>Orujov Fakhri</t>
   </si>
   <si>
-    <t>Bayramova Jamila</t>
-  </si>
-  <si>
     <t>Eyvazzada Anar</t>
   </si>
   <si>
     <t>Nasirli Zemfirakhanim</t>
   </si>
   <si>
+    <t>Hajiyev Hajiagha</t>
+  </si>
+  <si>
     <t>Malki Hanane</t>
-  </si>
-  <si>
-    <t>Hajiyev Hajiagha</t>
   </si>
   <si>
     <t>CS-22</t>
@@ -537,7 +537,7 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>7.40225</v>
+        <v>11.03141666666667</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -551,7 +551,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>6.966083333333334</v>
+        <v>10.79108333333333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -565,7 +565,7 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>6.942166666666666</v>
+        <v>10.4065</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -579,7 +579,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>6.714083333333334</v>
+        <v>10.25883333333333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -593,7 +593,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>6.7065</v>
+        <v>10.15783333333333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -607,7 +607,7 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>6.685249999999999</v>
+        <v>10.1125</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -621,7 +621,7 @@
         <v>45</v>
       </c>
       <c r="D8">
-        <v>6.665166666666667</v>
+        <v>9.695666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -635,7 +635,7 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>6.602083333333334</v>
+        <v>9.438083333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -649,7 +649,7 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>6.597833333333334</v>
+        <v>9.394750000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -663,7 +663,7 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>6.459416666666666</v>
+        <v>9.353166666666667</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -677,7 +677,7 @@
         <v>45</v>
       </c>
       <c r="D12">
-        <v>6.238249999999999</v>
+        <v>8.802416666666664</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -691,7 +691,7 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>6.187916666666667</v>
+        <v>8.629083333333334</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -705,7 +705,7 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>6.080916666666666</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -719,7 +719,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>6.080833333333333</v>
+        <v>8.244166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -733,7 +733,7 @@
         <v>45</v>
       </c>
       <c r="D16">
-        <v>6.041999999999999</v>
+        <v>8.213833333333334</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -747,7 +747,7 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>5.938499999999999</v>
+        <v>8.1975</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -761,7 +761,7 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>5.897166666666667</v>
+        <v>8.188833333333335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -775,7 +775,7 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>5.888833333333333</v>
+        <v>8.145499999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -789,7 +789,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>5.816666666666666</v>
+        <v>7.961166666666665</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>5.801333333333334</v>
+        <v>7.857583333333333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -817,7 +817,7 @@
         <v>45</v>
       </c>
       <c r="D22">
-        <v>5.669083333333333</v>
+        <v>7.72325</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -831,7 +831,7 @@
         <v>45</v>
       </c>
       <c r="D23">
-        <v>5.539000000000001</v>
+        <v>7.525583333333332</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -845,7 +845,7 @@
         <v>45</v>
       </c>
       <c r="D24">
-        <v>5.409166666666668</v>
+        <v>7.11575</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -859,7 +859,7 @@
         <v>45</v>
       </c>
       <c r="D25">
-        <v>5.392250000000001</v>
+        <v>7.08625</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -873,7 +873,7 @@
         <v>45</v>
       </c>
       <c r="D26">
-        <v>5.383249999999999</v>
+        <v>7.060333333333332</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -887,7 +887,7 @@
         <v>45</v>
       </c>
       <c r="D27">
-        <v>5.327333333333334</v>
+        <v>7.034666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -901,7 +901,7 @@
         <v>45</v>
       </c>
       <c r="D28">
-        <v>5.304833333333334</v>
+        <v>7.008333333333335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -915,7 +915,7 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>5.284666666666666</v>
+        <v>6.92025</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -929,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="D30">
-        <v>5.097</v>
+        <v>6.81625</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -943,7 +943,7 @@
         <v>45</v>
       </c>
       <c r="D31">
-        <v>5.0725</v>
+        <v>6.804833333333334</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -957,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>5.05</v>
+        <v>6.723166666666668</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -971,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>5.044666666666667</v>
+        <v>6.585249999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -985,7 +985,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>4.889749999999999</v>
+        <v>6.321</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -999,7 +999,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>4.789416666666666</v>
+        <v>6.203</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="D36">
-        <v>4.692666666666668</v>
+        <v>6.00325</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>4.678083333333334</v>
+        <v>5.809333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>45</v>
       </c>
       <c r="D38">
-        <v>3.804</v>
+        <v>5.511083333333334</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>45</v>
       </c>
       <c r="D39">
-        <v>3.679833333333332</v>
+        <v>5.41025</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>3.4355</v>
+        <v>4.720916666666666</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>1.2875</v>
+        <v>3.294583333333333</v>
       </c>
     </row>
     <row r="42" spans="1:4">
